--- a/com.bankofamerica/src/test/resources/test_data.xlsx
+++ b/com.bankofamerica/src/test/resources/test_data.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.bankofamerica\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625AF994-B06A-47A8-9128-51BFA4008ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D180715-C677-4ABA-BF90-0653A5DECC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4EB808A6-1619-443C-B9F9-888B9A11B7EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{4EB808A6-1619-443C-B9F9-888B9A11B7EF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestInvalidSignInDP" sheetId="1" r:id="rId1"/>
+    <sheet name="TestFindAHomeDP" sheetId="2" r:id="rId2"/>
+    <sheet name="TestLifePlanVideoDP" sheetId="3" r:id="rId3"/>
+    <sheet name="TestViewNewMortgageRateDP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +39,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>The information you entered does not match our records. Please verify your information.</t>
+  </si>
+  <si>
+    <t>Queens Village, NY (City)</t>
+  </si>
+  <si>
+    <t>Forest Hills, NY (City)</t>
+  </si>
+  <si>
+    <t>Richmond Hill, NY (City)</t>
+  </si>
+  <si>
+    <t>currentTime</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>11427</t>
+  </si>
+  <si>
+    <t>$1,497</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>88901</t>
+  </si>
+  <si>
+    <t>$2,081</t>
   </si>
 </sst>
 </file>
@@ -393,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A2CE5A-3B32-439A-A9EF-821646D78BEF}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -410,4 +449,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4290AE9E-E7E3-4C2A-8E86-898503C969FF}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7412E7-9C18-4975-BD3B-DF1C8B6D53DB}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7F660C-7804-4A4D-B117-D0FF1ADD007F}">
+  <dimension ref="A2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>